--- a/Libraries/Vehicle/Suspension/TwistBeam/sm_car_data_Linkage_TwistBeam.xlsx
+++ b/Libraries/Vehicle/Suspension/TwistBeam/sm_car_data_Linkage_TwistBeam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Suspension\TwistBeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D7A21C-30B1-4098-86F5-BDFF17BB42F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB6160-4BE2-4AEC-B8EC-B8F973A66EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="915" windowWidth="25575" windowHeight="13875" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="6345" yWindow="3375" windowWidth="23130" windowHeight="12540" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_r" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Units</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>Spring to Arm, Must be consistent with values in Damper</t>
+  </si>
+  <si>
+    <t>Rigid_Gimbal</t>
+  </si>
+  <si>
+    <t>Arm to Subframe</t>
+  </si>
+  <si>
+    <t>Damper to Subframe</t>
+  </si>
+  <si>
+    <t>Damper to Arm</t>
   </si>
 </sst>
 </file>
@@ -657,14 +669,14 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24:E25"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +807,7 @@
         <v>0.78649999999999998</v>
       </c>
       <c r="H7" s="10">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1247,19 +1259,67 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:C25 E17:E23">
+  <conditionalFormatting sqref="B17:C25">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E17:E25">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J24:J25">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Suspension/TwistBeam/sm_car_data_Linkage_TwistBeam.xlsx
+++ b/Libraries/Vehicle/Suspension/TwistBeam/sm_car_data_Linkage_TwistBeam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Suspension\TwistBeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Suspension\TwistBeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB6160-4BE2-4AEC-B8EC-B8F973A66EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CA388-5717-4A34-B7BA-7F31CA935B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3375" windowWidth="23130" windowHeight="12540" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="29610" yWindow="2880" windowWidth="21600" windowHeight="11295" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_r" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Units</t>
   </si>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>Damper to Arm</t>
+  </si>
+  <si>
+    <t>xAxle</t>
+  </si>
+  <si>
+    <t>Axle length</t>
+  </si>
+  <si>
+    <t>xWCtoBearing</t>
+  </si>
+  <si>
+    <t>Wheel Center to Bearing</t>
+  </si>
+  <si>
+    <t>mAxle</t>
   </si>
 </sst>
 </file>
@@ -669,14 +684,14 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,332 +842,321 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="J9" s="18"/>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10">
-        <v>-0.02</v>
-      </c>
-      <c r="I10" s="10">
-        <v>-0.02</v>
-      </c>
-      <c r="J10">
-        <v>-0.01</v>
-      </c>
-      <c r="K10">
-        <v>-0.01</v>
-      </c>
-      <c r="L10" s="10">
-        <v>-0.02</v>
-      </c>
-      <c r="M10" s="10">
-        <v>-0.02</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="P10">
-        <v>0.01</v>
-      </c>
-      <c r="Q10">
-        <v>0.01</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="I11">
-        <v>0.01</v>
-      </c>
-      <c r="J11">
-        <v>0.01</v>
-      </c>
-      <c r="K11">
-        <v>-0.01</v>
-      </c>
-      <c r="L11">
-        <v>-0.01</v>
-      </c>
-      <c r="M11" s="10">
-        <v>-0.02</v>
-      </c>
-      <c r="N11" s="10">
-        <v>-0.02</v>
-      </c>
-      <c r="O11">
-        <v>-0.01</v>
-      </c>
-      <c r="P11">
-        <v>-0.01</v>
-      </c>
-      <c r="Q11">
-        <v>0.01</v>
-      </c>
-      <c r="R11">
-        <v>0.01</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0.02</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.65</v>
+      </c>
       <c r="H12" s="10">
-        <v>2700</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>70</v>
+        <v>-0.02</v>
+      </c>
+      <c r="I13" s="10">
+        <v>-0.02</v>
+      </c>
+      <c r="J13">
+        <v>-0.01</v>
+      </c>
+      <c r="K13">
+        <v>-0.01</v>
+      </c>
+      <c r="L13" s="10">
+        <v>-0.02</v>
+      </c>
+      <c r="M13" s="10">
+        <v>-0.02</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P13">
+        <v>0.01</v>
+      </c>
+      <c r="Q13">
+        <v>0.01</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14">
-        <v>0.33</v>
+      <c r="H14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I14">
+        <v>0.01</v>
+      </c>
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+      <c r="K14">
+        <v>-0.01</v>
+      </c>
+      <c r="L14">
+        <v>-0.01</v>
+      </c>
+      <c r="M14" s="10">
+        <v>-0.02</v>
+      </c>
+      <c r="N14" s="10">
+        <v>-0.02</v>
+      </c>
+      <c r="O14">
+        <v>-0.01</v>
+      </c>
+      <c r="P14">
+        <v>-0.01</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14">
+        <v>0.01</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="18">
-        <v>1E-3</v>
+      <c r="H15" s="10">
+        <v>2700</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="18">
-        <v>1</v>
+      <c r="H16" s="10">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>10</v>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.68</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="s">
-        <v>11</v>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="18">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <v>3.6529410000000002</v>
+      <c r="H19" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.68</v>
+      </c>
       <c r="H20" s="10">
-        <v>4.3157700000000006</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0.65</v>
+        <v>50</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.26</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1162,39 +1166,24 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H22" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
+        <v>3.6529410000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -1202,123 +1191,200 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
-        <v>3.6529410000000002</v>
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>13</v>
+      <c r="B24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16" t="s">
-        <v>14</v>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="10">
-        <v>-0.15</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7" t="s">
-        <v>53</v>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="B27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10">
+        <v>-0.15</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:C25">
+  <conditionalFormatting sqref="B20:C28">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E25">
+  <conditionalFormatting sqref="E20:E28">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J25">
+  <conditionalFormatting sqref="J27:J28">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Suspension/TwistBeam/sm_car_data_Linkage_TwistBeam.xlsx
+++ b/Libraries/Vehicle/Suspension/TwistBeam/sm_car_data_Linkage_TwistBeam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Suspension\TwistBeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Suspension\TwistBeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CA388-5717-4A34-B7BA-7F31CA935B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E135F9A5-2904-4BB8-83EE-9F4AB4DD7FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="2880" windowWidth="21600" windowHeight="11295" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_r" sheetId="5" r:id="rId1"/>
@@ -687,27 +687,27 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="14" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="14" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -806,7 +806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -825,7 +825,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
@@ -858,7 +858,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
@@ -876,7 +876,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
@@ -891,7 +891,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
@@ -967,7 +967,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
@@ -1018,7 +1018,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
@@ -1033,7 +1033,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
@@ -1051,7 +1051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
@@ -1069,7 +1069,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9" t="s">
@@ -1087,7 +1087,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="13" t="s">
         <v>38</v>
@@ -1134,7 +1134,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
@@ -1164,7 +1164,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
@@ -1179,7 +1179,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
@@ -1194,7 +1194,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="13" t="s">
         <v>32</v>
@@ -1226,7 +1226,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
@@ -1256,7 +1256,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9" t="s">
@@ -1271,7 +1271,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="15" t="s">
         <v>12</v>
@@ -1299,7 +1299,7 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
@@ -1325,7 +1325,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
@@ -1341,7 +1341,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
@@ -1357,7 +1357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
         <v>56</v>
